--- a/test.xlsx
+++ b/test.xlsx
@@ -1,69 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dg/Documents/Covid-Severity-Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48243A9F-B719-2543-935E-CF94A7525E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF70B51-16D4-5340-B99E-B628F1A38DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="8760" xr2:uid="{5C18C6C7-C4A5-E840-81E1-0A2DF803DD75}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="8760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140000"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Grade1</t>
-  </si>
-  <si>
-    <t>Grade2</t>
-  </si>
-  <si>
-    <t>Grade3</t>
-  </si>
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+  <si>
+    <t>Pt's #</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Symptom 1</t>
+  </si>
+  <si>
+    <t>Symptom 2</t>
+  </si>
+  <si>
+    <t>Symptom 3</t>
+  </si>
+  <si>
+    <t>Symptom 4</t>
+  </si>
+  <si>
+    <t>Symptom 5</t>
+  </si>
+  <si>
+    <t>Symptom 6</t>
+  </si>
+  <si>
+    <t>Symptom 7</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>chest pain</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>HTN</t>
+  </si>
+  <si>
+    <t>Transplant</t>
+  </si>
+  <si>
+    <t>Immunosuppression</t>
+  </si>
+  <si>
+    <t>CXR+</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>MwRF</t>
+  </si>
+  <si>
+    <t>myalgia</t>
+  </si>
+  <si>
+    <t>sore throat</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>Intubated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,13 +128,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,10 +175,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,12 +188,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,44 +228,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -201,31 +293,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -253,23 +328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,158 +339,220 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF6C8C8-2A3D-0041-86A1-479F4F7AE24B}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -443,50 +563,212 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="AA4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>